--- a/src/test/resources/InputForAPIRuns/API_data.xlsx
+++ b/src/test/resources/InputForAPIRuns/API_data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
   <si>
     <t>testCaseID</t>
   </si>
@@ -174,6 +175,51 @@
   </si>
   <si>
     <t>currentPasswordSameAsNewPassword</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>register,sanity</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>register,</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>login,sanity</t>
+  </si>
+  <si>
+    <t>login,</t>
+  </si>
+  <si>
+    <t>change,sanity</t>
+  </si>
+  <si>
+    <t>change,</t>
+  </si>
+  <si>
+    <t>config.prop</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Sanity || Regression</t>
+  </si>
+  <si>
+    <t>Sanity &amp;&amp; Regression</t>
   </si>
 </sst>
 </file>
@@ -1338,17 +1384,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.69090909090909" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.9909090909091" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6363636363636" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6363636363636" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.7818181818182" style="1" customWidth="1"/>
@@ -1806,9 +1852,197 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="F2:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="7" max="7" width="35.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="30.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="33.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:8">
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8">
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="7:8">
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8">
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8">
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8">
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8">
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8">
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8">
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8">
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8">
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8">
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10">
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10">
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/InputForAPIRuns/API_data.xlsx
+++ b/src/test/resources/InputForAPIRuns/API_data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Properties" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1386,8 +1387,8 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.69090909090909" defaultRowHeight="14.5"/>
@@ -1894,10 +1895,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="F2:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
